--- a/Validation/produced_at_night_tomato.xlsx
+++ b/Validation/produced_at_night_tomato.xlsx
@@ -487,7 +487,7 @@
         <v>-1000000</v>
       </c>
       <c r="D3" t="n">
-        <v>1000000</v>
+        <v>999999.9999999986</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>

--- a/Validation/produced_at_night_tomato.xlsx
+++ b/Validation/produced_at_night_tomato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,39 +458,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>NITRATE_Cyto_Day_sp_exchange</t>
+          <t>x_Starch_Day_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.243846669067203e-05</v>
+        <v>-4.186128843675311</v>
       </c>
       <c r="C2" t="n">
-        <v>-166666.6666666666</v>
+        <v>-999999.8532632083</v>
       </c>
       <c r="D2" t="n">
-        <v>200000.0000000001</v>
+        <v>-3.711215751192143</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>MAL_Cyto_Day_sp_exchange</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-3.936885570176189e-05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1000000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>999999.9999999986</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Validation/produced_at_night_tomato.xlsx
+++ b/Validation/produced_at_night_tomato.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.186128843675311</v>
+        <v>-188.6720833333333</v>
       </c>
       <c r="C2" t="n">
-        <v>-999999.8532632083</v>
+        <v>-999805.1822153517</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.711215751192143</v>
+        <v>20622.70629166667</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
